--- a/src/static_in_env/assets/excel/laporan.xlsx
+++ b/src/static_in_env/assets/excel/laporan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anaqi\Desktop\jpspy\src\static_in_env\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5609AE46-1966-4D1A-A804-9D354D4F52F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107EDD36-BEB9-4AF9-B6F2-124BC022D014}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{C1AC1F79-A151-4151-9B94-DFE031878F93}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Bil</t>
   </si>
@@ -71,27 +71,6 @@
   </si>
   <si>
     <t>LAPORAN PERBELANJAAN</t>
-  </si>
-  <si>
-    <t>B13-28209</t>
-  </si>
-  <si>
-    <t>PENYELENGGARAAN TERUSAN, TALIAIR TANAH/KONKRIT SERTA PARIT DIKAWASAN RANTAU PANJANG, SKIM PENGAIRAN KOTA II, DAERAH KUALA MUDA, KEDAH DARUL AMAN.</t>
-  </si>
-  <si>
-    <t>61,775.11</t>
-  </si>
-  <si>
-    <t>-61,775.11</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>(1) FEBAH ENTERPRISE
-(2) JPSKMSB(KU/KM)S/B/OM/101/2020
-(3) 22-09-2020 / 12-11-2020
-(4) 22-09-2020 / 12-11-2020</t>
   </si>
 </sst>
 </file>
@@ -197,15 +176,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -528,7 +507,7 @@
   <dimension ref="A2:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A7" sqref="A7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,19 +525,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -596,338 +575,316 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
